--- a/other/Street Map/streets crossings capacities traffic.xlsx
+++ b/other/Street Map/streets crossings capacities traffic.xlsx
@@ -7,8 +7,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ist-Zustand" sheetId="1" r:id="rId1"/>
+    <sheet name="Soll-Zustand" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ist-Zustand'!$A$1:$H$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Soll-Zustand'!$A$1:$M$55</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="46">
   <si>
     <t>Knoten Nummer</t>
   </si>
@@ -117,9 +122,6 @@
     <t>K6</t>
   </si>
   <si>
-    <t>Ist-Zustand</t>
-  </si>
-  <si>
     <t>Zufluss-&gt;K1</t>
   </si>
   <si>
@@ -136,6 +138,78 @@
   </si>
   <si>
     <t>K4*K6*</t>
+  </si>
+  <si>
+    <t>K6*K1*</t>
+  </si>
+  <si>
+    <t>K6*K2*</t>
+  </si>
+  <si>
+    <t>K2*</t>
+  </si>
+  <si>
+    <t>K1*</t>
+  </si>
+  <si>
+    <t>K2K6</t>
+  </si>
+  <si>
+    <t>K6K4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bemerkungen:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Die Zuflüsse und Abflüsse werden in den Knoten 1 und 5 Zusammengefasst, so als ob nur eine weiterführende Strasse existiert.
+-In Fahrtrichtung See werden keine Abflüsse zwischen den Knoten 5* und 6* angenommen
+-Der Zufluss St. Annagasse wird dem Knoten 2 angerechnet (siehe violeter Pfeil)
+-Allgemein müssen Zu- Abflüsse genauer definiert werden</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bemerkungen:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Die Zuflüsse und Abflüsse werden in den Knoten 1 und 5 Zusammengefasst, so als ob nur eine weiterführende Strasse existiert.
+-In Fahrtrichtung See werden keine Abflüsse zwischen den Knoten 5* und 6* angenommen
+-Der Zufluss St. Annagasse wird dem Knoten 1 angerechnet
+-Allgemein müssen Zu- Abflüsse genauer definiert werden</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -159,12 +233,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -179,9 +271,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -197,6 +298,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>145155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4754880"/>
+          <a:ext cx="10058400" cy="5265796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>145155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5958840"/>
+          <a:ext cx="10058400" cy="5265796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,26 +661,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
     <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" customWidth="1"/>
     <col min="5" max="5" width="38.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:M55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,95 +1068,106 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -603,156 +1184,166 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="D22" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="D23" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
-        <v>20</v>
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/other/Street Map/streets crossings capacities traffic.xlsx
+++ b/other/Street Map/streets crossings capacities traffic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ist-Zustand" sheetId="1" r:id="rId1"/>
@@ -661,22 +661,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>44</v>
       </c>
@@ -688,7 +691,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -716,7 +719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -727,7 +730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -738,7 +741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -749,7 +752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -760,7 +763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -771,7 +774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -782,7 +785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -793,7 +796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -804,7 +807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -821,7 +824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
@@ -835,7 +838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
@@ -849,7 +852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -866,7 +869,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -883,7 +886,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -900,7 +903,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -917,7 +920,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
@@ -931,7 +934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -945,7 +948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
@@ -959,7 +962,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
@@ -973,7 +976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -987,7 +990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
@@ -1020,22 +1023,25 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="4294967295" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:M55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>45</v>
       </c>
@@ -1051,7 +1057,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1090,7 +1096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
@@ -1101,7 +1107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1112,7 +1118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1123,7 +1129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1134,7 +1140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -1198,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -1226,7 +1232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
@@ -1240,7 +1246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1254,7 +1260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1268,7 +1274,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
@@ -1282,7 +1288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>38</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>39</v>
       </c>
@@ -1343,7 +1349,7 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="4294967295" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>